--- a/biology/Zoologie/Euchloe/Euchloe.xlsx
+++ b/biology/Zoologie/Euchloe/Euchloe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euchloe est un genre holarctique de lépidoptères (papillons) de la famille des Pieridae et de la sous-famille des Pierinae.
 </t>
@@ -511,10 +523,12 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En français, les espèces du genre Euchloe comptent parmi celles appelées « Piérides » ou « Marbrés ».
-En anglais, on parle notamment de dappled whites pour certaines espèces de l'Ancien Monde, et de marbles ou marblewings pour les espèces d'Amérique du Nord[1].
+En anglais, on parle notamment de dappled whites pour certaines espèces de l'Ancien Monde, et de marbles ou marblewings pour les espèces d'Amérique du Nord.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Euchloe a été créé par l'entomologiste allemand Jakob Hübner en 1819.
 Les contours du genre sont encore débattus, et des études de phylogénétique moléculaire ont conduit certains auteurs récents à placer certaines espèces dans des genres distincts : Iberochloe Back, Knebelsberger &amp; Miller 2008 et Elphinstonia Klots, 1930.
@@ -576,10 +592,12 @@
           <t>Liste des espèces et distributions géographiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Euchloe est principalement holarctique, ce qui signifie que ses espèces sont présentes en Eurasie, en Amérique du Nord et en Afrique du Nord ; certaines atteignent aussi l'Afrique tropicale[2].
-En fonction des sources, on dénombre une vingtaine ou une trentaine d'espèces[1],[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Euchloe est principalement holarctique, ce qui signifie que ses espèces sont présentes en Eurasie, en Amérique du Nord et en Afrique du Nord ; certaines atteignent aussi l'Afrique tropicale.
+En fonction des sources, on dénombre une vingtaine ou une trentaine d'espèces,.
 Les espèces suivantes constituent le genre Euchloe au sens strict :
 Euchloe belemia (Esper, 1800) — la Piéride du sisymbre — dans la péninsule Ibérique, en Afrique du Nord et au Moyen-Orient.
 Euchloe eversi Stamm, 1963 — à Tenerife — parfois considérée comme une sous-espèce d’Euchloe belemia.
@@ -588,14 +606,14 @@
 Euchloe crameri Butler, 1869 — la Piéride des biscutelles, le Marbré de Cramer — dans le Sud-Ouest de l'Europe et en Afrique du Nord.
 Euchloe melanochloros Röber, 1907 — en Afrique du Nord — parfois considérée comme une sous-espèce d’Euchloe crameri ou d’Euchloe ausonia.
 Euchloe simplonia (Freyer, 1829) — la Piéride du Simplon, la Piéride de la roquette ou le Marbré de Freyer — dans les Alpes, les Pyrénées et les monts Cantabriques.
-Euchloe ausonia (Hübner, [1804]) — le Marbré oriental — dans le Sud de l'Europe et en Asie.
+Euchloe ausonia (Hübner, ) — le Marbré oriental — dans le Sud de l'Europe et en Asie.
 Euchloe daphalis (Moore, 1865) — en Asie centrale et du Sud.
 Euchloe pulverata (Christoph, 1884) — de la Turquie à l'Asie centrale.
 Euchloe ochracea (Trybom, 1877) — en Asie.
-Euchloe naina Kozhantshikov, 1923 — dans le Nord-Est de l'Asie et le Nord-Ouest de l'Amérique du Nord — parfois considérée comme une sous-espèce d’Euchloe ochracea[1].
+Euchloe naina Kozhantshikov, 1923 — dans le Nord-Est de l'Asie et le Nord-Ouest de l'Amérique du Nord — parfois considérée comme une sous-espèce d’Euchloe ochracea.
 Euchloe ausonides (Lucas, 1852) — dans l'Ouest de l'Amérique du Nord.
-Euchloe creusa (Doubleday, [1847]) — dans le Nord-Est de l'Asie et le Nord-Ouest de l'Amérique du Nord.
-Euchloe orientalis (Bremer, 1864) — dans le Nord-Est de l'Asie — parfois considérée comme une sous-espèce d’Euchloe creusa[1].
+Euchloe creusa (Doubleday, ) — dans le Nord-Est de l'Asie et le Nord-Ouest de l'Amérique du Nord.
+Euchloe orientalis (Bremer, 1864) — dans le Nord-Est de l'Asie — parfois considérée comme une sous-espèce d’Euchloe creusa.
 Euchloe insularis (Staudinger, 1861) — le Marbré tyrrhénien — en Corse et en Sardaigne.
 Euchloe aegyptiaca Verity, 1911 — en Afrique du Nord-Est et au Moyen-Orient.
 Euchloe falloui (Allard, 1867) — le Zébré-de-vert — en Afrique du Nord et de l'Est, au Levant et en Arabie.
@@ -612,13 +630,13 @@
 			Euchloe olympia
 			Euchloe lotta
 Les espèces suivantes sont placées par certains auteurs dans un genre distinct appelé Iberochloe Back, Knebelsberger &amp; Miller 2008 :
-Euchloe tagis (Hübner, [1804]) — le Marbré de Lusitanie — dans le Sud-Ouest de l'Europe et en Afrique du Nord.
+Euchloe tagis (Hübner, ) — le Marbré de Lusitanie — dans le Sud-Ouest de l'Europe et en Afrique du Nord.
 Euchloe pechi (Staudinger, 1885) — en Afrique du Nord — parfois considérée comme une sous-espèce d’Euchloe tagis.
 Les espèces suivantes sont placées par certains auteurs dans un genre distinct appelé Elphinstonia Klots, 1930, mais d'autres considèrent Elphinstonia comme un sous-genre d’Euchloe :
 Euchloe charlonia (Donzel, 1842) — la Piéride soufrée ou la Piéride de la cléome — aux îles Canaries, en Afrique du Nord et au Moyen-Orient.
 Euchloe bazae Fabiano, 1993 — en Espagne.
 Euchloe lucilla Butler, 1886 — en Afghanistan.
-Euchloe transcaspica (Staudinger, [1892]) — en Turkménistan, en Iran.
+Euchloe transcaspica (Staudinger, ) — en Turkménistan, en Iran.
 Euchloe penia (Freyer, 1852) — la Piéride soufrée des steppes — dans les Balkans et au Moyen-Orient.
 Euchloe tomyris (Christoph, 1884) — en Asie centrale.
 Euchloe lessei Bernardi, 1957 — en Iran.
